--- a/data/현행추정부채_요구자본_일반/20210813/일반_사업비율_202012.xlsx
+++ b/data/현행추정부채_요구자본_일반/20210813/일반_사업비율_202012.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="5248"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11700205\workspace\96. 깃허브\qis4\data\현행추정부채_요구자본_일반\20210813\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="4335"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="0.001"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>RRNR_DVCD</t>
   </si>
@@ -114,15 +121,6 @@
   </si>
   <si>
     <t>A100</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>A002</t>
   </si>
   <si>
     <t>02</t>
@@ -308,69 +306,73 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill>
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border outline="0">
-      <left>
-        <color auto="1"/>
-      </left>
-      <right>
-        <color auto="1"/>
-      </right>
-      <top>
-        <color auto="1"/>
-      </top>
-      <bottom>
-        <color auto="1"/>
-      </bottom>
-      <diagonal>
-        <color auto="1"/>
-      </diagonal>
-      <vertical>
-        <color auto="1"/>
-      </vertical>
-      <horizontal>
-        <color auto="1"/>
-      </horizontal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,13 +414,13 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -444,15 +446,16 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="?? ?????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -478,6 +481,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,10 +657,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -681,10 +691,10 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>0.050605385515</v>
-      </c>
-    </row>
-    <row r="3" ht="15">
+        <v>5.0605385514999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -695,10 +705,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>0.02941442064</v>
-      </c>
-    </row>
-    <row r="4" ht="15">
+        <v>2.9414420640000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -709,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.034182108633</v>
-      </c>
-    </row>
-    <row r="5" ht="15">
+        <v>3.4182108633000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -723,10 +733,10 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>0.019614365338</v>
-      </c>
-    </row>
-    <row r="6" ht="15">
+        <v>1.9614365338000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -737,10 +747,10 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.036249088014</v>
-      </c>
-    </row>
-    <row r="7" ht="15">
+        <v>3.6249088014000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -751,10 +761,10 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>-0.00607069630587033</v>
-      </c>
-    </row>
-    <row r="8" ht="15">
+        <v>-6.0706963058703304E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -765,10 +775,10 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>0.025184052961</v>
-      </c>
-    </row>
-    <row r="9" ht="15">
+        <v>2.5184052961E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -779,10 +789,10 @@
         <v>27</v>
       </c>
       <c r="D9">
-        <v>0.026431450615</v>
-      </c>
-    </row>
-    <row r="10" ht="15">
+        <v>2.6431450615000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -793,10 +803,10 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>0.021691312764</v>
-      </c>
-    </row>
-    <row r="11" ht="15">
+        <v>2.1691312763999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -807,304 +817,319 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.036137608251</v>
-      </c>
-    </row>
-    <row r="12" ht="15">
+        <v>3.6137608251E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5.0605385514999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2.9414420640000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
-        <v>0.02941442064</v>
-      </c>
-    </row>
-    <row r="13" ht="15">
-      <c r="A13" t="s">
+      <c r="D14">
+        <v>3.4182108633000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D13">
-        <v>0.034182108633</v>
-      </c>
-    </row>
-    <row r="14" ht="15">
-      <c r="A14" t="s">
+      <c r="D15">
+        <v>1.9614365338000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D14">
-        <v>0.019614365338</v>
-      </c>
-    </row>
-    <row r="15" ht="15">
-      <c r="A15" t="s">
+      <c r="D16">
+        <v>3.6249088014000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D15">
-        <v>0.036249088014</v>
-      </c>
-    </row>
-    <row r="16" ht="15">
-      <c r="A16" t="s">
+      <c r="D17">
+        <v>-6.0706963058703304E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>48</v>
       </c>
-      <c r="D16">
-        <v>-0.00607069630587033</v>
-      </c>
-    </row>
-    <row r="17" ht="15">
-      <c r="A17" t="s">
+      <c r="D18">
+        <v>2.5184052961E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>51</v>
       </c>
-      <c r="D17">
-        <v>0.025184052961</v>
-      </c>
-    </row>
-    <row r="18" ht="15">
-      <c r="A18" t="s">
+      <c r="D19">
+        <v>2.1469359067E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="D18">
-        <v>0.021469359067</v>
-      </c>
-    </row>
-    <row r="19" ht="15">
-      <c r="A19" t="s">
+      <c r="D20">
+        <v>2.1691312763999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>57</v>
       </c>
-      <c r="D19">
-        <v>0.021691312764</v>
-      </c>
-    </row>
-    <row r="20" ht="15">
-      <c r="A20" t="s">
+      <c r="D21">
+        <v>3.8805908081999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="D20">
-        <v>0.038805908082</v>
-      </c>
-    </row>
-    <row r="21" ht="15">
-      <c r="A21" t="s">
+      <c r="D22">
+        <v>2.1470370297E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>62</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>63</v>
       </c>
-      <c r="D21">
-        <v>0.021470370297</v>
-      </c>
-    </row>
-    <row r="22" ht="15">
-      <c r="A22" t="s">
+      <c r="D23">
+        <v>3.6137608251E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D22">
-        <v>0.036137608251</v>
-      </c>
-    </row>
-    <row r="23" ht="15">
-      <c r="A23" t="s">
+      <c r="D24">
+        <v>5.0828178747999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D23">
-        <v>0.050828178748</v>
-      </c>
-    </row>
-    <row r="24" ht="15">
-      <c r="A24" t="s">
+      <c r="D25">
+        <v>2.9258006520000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>70</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>71</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="D24">
-        <v>0.02925800652</v>
-      </c>
-    </row>
-    <row r="25" ht="15">
-      <c r="A25" t="s">
+      <c r="D26">
+        <v>3.5560543558999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="D25">
-        <v>0.035560543559</v>
-      </c>
-    </row>
-    <row r="26" ht="15">
-      <c r="A26" t="s">
+      <c r="D27">
+        <v>2.6166387688999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>76</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>78</v>
       </c>
-      <c r="D26">
-        <v>0.026166387689</v>
-      </c>
-    </row>
-    <row r="27" ht="15">
-      <c r="A27" t="s">
+      <c r="D28">
+        <v>3.6318980579000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>79</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="D27">
-        <v>0.036318980579</v>
-      </c>
-    </row>
-    <row r="28" ht="15">
-      <c r="A28" t="s">
+      <c r="D29">
+        <v>-6.1540865798076902E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>82</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>84</v>
       </c>
-      <c r="D28">
-        <v>-0.00615408657980769</v>
-      </c>
-    </row>
-    <row r="29" ht="15">
-      <c r="A29" t="s">
+      <c r="D30">
+        <v>2.5940024377999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>85</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>86</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>87</v>
       </c>
-      <c r="D29">
-        <v>0.025940024378</v>
-      </c>
-    </row>
-    <row r="30" ht="15">
-      <c r="A30" t="s">
+      <c r="D31">
+        <v>2.1474919403999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>88</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>90</v>
       </c>
-      <c r="D30">
-        <v>0.021474919404</v>
-      </c>
-    </row>
-    <row r="31" ht="15">
-      <c r="A31" t="s">
+      <c r="D32">
+        <v>2.1871586474000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>91</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>92</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="D31">
-        <v>0.021871586474</v>
-      </c>
-    </row>
-    <row r="32" ht="15">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32">
-        <v>0.037993286222</v>
+      <c r="D33">
+        <v>3.7993286222000003E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
 </worksheet>
